--- a/Data/ReportView_SK_REG_COMPLETE_updated.xlsx
+++ b/Data/ReportView_SK_REG_COMPLETE_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="73">
   <si>
     <t>EMPID</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Line Manager</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>SK01</t>
@@ -654,19 +657,19 @@
   <dimension ref="A1:J562"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="B461" sqref="B461"/>
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.65" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10648949</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10648949</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10648949</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10648949</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10648949</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10648949</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>10648995</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>10648995</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>10648995</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>10648995</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>10648995</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>10648995</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>10648995</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>10648995</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>10648995</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>10648995</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>10648995</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>10648995</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>10648995</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>10648995</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>10648995</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>10648995</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>10648995</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>10648995</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>10648995</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>10648995</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>10648995</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>10648995</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>10648995</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>10648995</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>10648995</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>10648995</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>10648995</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>10648995</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>10648995</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>10648995</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>10648995</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>10648995</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>10648995</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>10648995</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>10648995</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>10648995</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>10648995</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>10648995</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>10648995</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>10648995</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>10648995</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>10648995</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>10648995</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>10648995</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>10648995</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>10648995</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>10648995</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>10648995</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>10648995</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>10648995</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" ht="15.6" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="15.65" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>10648785</v>
       </c>
@@ -2440,13 +2443,13 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="105" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>10648785</v>
       </c>
@@ -2460,13 +2463,13 @@
         <v>9</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="106" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>10648785</v>
       </c>
@@ -2480,13 +2483,13 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="107" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>10648785</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>10648785</v>
       </c>
@@ -2520,13 +2523,13 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>10648785</v>
       </c>
@@ -2540,13 +2543,13 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="110" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>10648785</v>
       </c>
@@ -2560,13 +2563,13 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>10648785</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>10648785</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>10648785</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>10648785</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>10648785</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>10648785</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>10648785</v>
       </c>
@@ -2700,13 +2703,13 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>10648785</v>
       </c>
@@ -2720,13 +2723,13 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="119" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>10648785</v>
       </c>
@@ -2740,13 +2743,13 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="120" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>10648785</v>
       </c>
@@ -2760,13 +2763,13 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H120" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="121" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>10648785</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>10648785</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>10648785</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>10648785</v>
       </c>
@@ -2840,13 +2843,13 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="125" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>10648785</v>
       </c>
@@ -2860,13 +2863,13 @@
         <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="126" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>10648785</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>10648785</v>
       </c>
@@ -2900,13 +2903,13 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="128" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>10648785</v>
       </c>
@@ -2920,13 +2923,13 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H128" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="129" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>10648785</v>
       </c>
@@ -2940,13 +2943,13 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>10648785</v>
       </c>
@@ -2960,13 +2963,13 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>10648785</v>
       </c>
@@ -2980,13 +2983,13 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H131" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="132" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>10648785</v>
       </c>
@@ -3000,13 +3003,13 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="133" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>10648785</v>
       </c>
@@ -3020,13 +3023,13 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H133" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="134" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>10648785</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>10648785</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>10648785</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>10648785</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>10648785</v>
       </c>
@@ -3120,13 +3123,13 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H138" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="139" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>10648785</v>
       </c>
@@ -3140,13 +3143,13 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H139" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="140" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>10648785</v>
       </c>
@@ -3160,13 +3163,13 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H140" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="141" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>10648785</v>
       </c>
@@ -3180,13 +3183,13 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H141" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="142" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>10648785</v>
       </c>
@@ -3200,13 +3203,13 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H142" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="143" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>10648785</v>
       </c>
@@ -3220,13 +3223,13 @@
         <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H143" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="144" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>10648785</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>10648785</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>10648785</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>10648785</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>10648785</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>10648785</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>10648785</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>10648785</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>10648785</v>
       </c>
@@ -3397,13 +3400,13 @@
         <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H152" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="153" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>10648785</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>10648785</v>
       </c>
@@ -3461,10 +3464,10 @@
         <v>14</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>10648785</v>
       </c>
@@ -3481,10 +3484,10 @@
         <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>10648785</v>
       </c>
@@ -3501,10 +3504,10 @@
         <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>10648785</v>
       </c>
@@ -3521,10 +3524,10 @@
         <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>10648785</v>
       </c>
@@ -3541,10 +3544,10 @@
         <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>10648785</v>
       </c>
@@ -3561,10 +3564,10 @@
         <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>10648785</v>
       </c>
@@ -3581,10 +3584,10 @@
         <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>10648785</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" ht="15.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" ht="15.65" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>10648785</v>
       </c>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>10648785</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>10648785</v>
       </c>
@@ -3662,10 +3665,10 @@
         <v>14</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>10648785</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>10648785</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>10648785</v>
       </c>
@@ -3722,10 +3725,10 @@
         <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>10648785</v>
       </c>
@@ -3742,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>10648785</v>
       </c>
@@ -3762,10 +3765,10 @@
         <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>10648785</v>
       </c>
@@ -3782,10 +3785,10 @@
         <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>10648785</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>10648785</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>10648785</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>10648785</v>
       </c>
@@ -3862,10 +3865,10 @@
         <v>14</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>10648785</v>
       </c>
@@ -3882,10 +3885,10 @@
         <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>10648785</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>10648785</v>
       </c>
@@ -3922,10 +3925,10 @@
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>10648785</v>
       </c>
@@ -3942,10 +3945,10 @@
         <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>10648785</v>
       </c>
@@ -3962,10 +3965,10 @@
         <v>14</v>
       </c>
       <c r="G180" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>10648785</v>
       </c>
@@ -3982,10 +3985,10 @@
         <v>14</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>10648785</v>
       </c>
@@ -4002,10 +4005,10 @@
         <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>10648785</v>
       </c>
@@ -4022,10 +4025,10 @@
         <v>14</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>10648785</v>
       </c>
@@ -4042,10 +4045,10 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>10648785</v>
       </c>
@@ -4062,10 +4065,10 @@
         <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>10648785</v>
       </c>
@@ -4082,10 +4085,10 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>10648785</v>
       </c>
@@ -4102,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>10648785</v>
       </c>
@@ -4122,10 +4125,10 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>10648785</v>
       </c>
@@ -4142,10 +4145,10 @@
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10648785</v>
       </c>
@@ -4162,10 +4165,10 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>10648785</v>
       </c>
@@ -4182,10 +4185,10 @@
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>10648785</v>
       </c>
@@ -4202,10 +4205,10 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>10648785</v>
       </c>
@@ -4222,10 +4225,10 @@
         <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>10648785</v>
       </c>
@@ -4242,10 +4245,10 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>10648785</v>
       </c>
@@ -4262,10 +4265,10 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>10648785</v>
       </c>
@@ -4282,10 +4285,10 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="197" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>10648785</v>
       </c>
@@ -4302,10 +4305,10 @@
         <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="198" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>10648785</v>
       </c>
@@ -4322,10 +4325,10 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="199" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>10648785</v>
       </c>
@@ -4342,10 +4345,10 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="200" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>10648785</v>
       </c>
@@ -4362,10 +4365,10 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="201" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>10648785</v>
       </c>
@@ -4382,10 +4385,10 @@
         <v>14</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>10648785</v>
       </c>
@@ -4402,10 +4405,10 @@
         <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="203" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>10648785</v>
       </c>
@@ -4419,10 +4422,10 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>10648785</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>10648785</v>
       </c>
@@ -4462,9 +4465,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4479,9 +4482,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4496,9 +4499,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4513,9 +4516,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4530,9 +4533,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4547,9 +4550,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4564,9 +4567,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
@@ -4581,9 +4584,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -4598,9 +4601,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -4615,9 +4618,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -4632,9 +4635,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -4649,9 +4652,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -4666,9 +4669,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -4683,9 +4686,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -4700,9 +4703,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -4717,9 +4720,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -4734,9 +4737,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -4751,9 +4754,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -4768,9 +4771,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -4785,9 +4788,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -4802,9 +4805,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -4819,9 +4822,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -4836,9 +4839,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -4853,9 +4856,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -4870,9 +4873,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -4887,9 +4890,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -4904,9 +4907,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -4921,9 +4924,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -4938,9 +4941,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -4955,9 +4958,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -4972,9 +4975,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -4989,9 +4992,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5006,9 +5009,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5023,9 +5026,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5040,9 +5043,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5057,9 +5060,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5074,9 +5077,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
@@ -5091,9 +5094,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -5108,9 +5111,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -5125,9 +5128,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -5142,9 +5145,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
@@ -5159,9 +5162,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -5176,9 +5179,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B248" t="s">
         <v>7</v>
@@ -5193,9 +5196,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
@@ -5210,9 +5213,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
@@ -5227,9 +5230,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B251" t="s">
         <v>7</v>
@@ -5244,9 +5247,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B252" t="s">
         <v>7</v>
@@ -5261,9 +5264,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
@@ -5278,9 +5281,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
@@ -5292,9 +5295,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -5309,9 +5312,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
@@ -5326,9 +5329,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5343,9 +5346,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5360,9 +5363,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5377,9 +5380,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5394,9 +5397,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5411,9 +5414,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5428,9 +5431,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5445,9 +5448,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5462,9 +5465,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -5479,9 +5482,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -5496,9 +5499,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -5513,9 +5516,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -5530,9 +5533,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -5547,9 +5550,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -5564,9 +5567,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -5581,9 +5584,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -5598,9 +5601,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
@@ -5615,9 +5618,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -5632,9 +5635,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
@@ -5649,9 +5652,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -5666,9 +5669,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -5683,9 +5686,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -5700,9 +5703,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -5717,9 +5720,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B280" t="s">
         <v>7</v>
@@ -5734,9 +5737,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -5751,9 +5754,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B282" t="s">
         <v>7</v>
@@ -5768,9 +5771,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
@@ -5785,9 +5788,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -5802,9 +5805,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -5819,9 +5822,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -5836,9 +5839,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -5853,9 +5856,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -5870,9 +5873,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -5887,9 +5890,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -5904,9 +5907,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -5921,9 +5924,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -5938,9 +5941,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -5955,9 +5958,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -5972,9 +5975,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -5989,9 +5992,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6006,9 +6009,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6023,9 +6026,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6040,9 +6043,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6057,9 +6060,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6074,9 +6077,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6091,9 +6094,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -6108,9 +6111,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -6125,9 +6128,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -6142,9 +6145,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -6159,9 +6162,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -6176,9 +6179,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -6193,9 +6196,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -6210,9 +6213,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -6227,9 +6230,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -6244,9 +6247,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -6261,9 +6264,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -6278,9 +6281,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -6295,9 +6298,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -6312,9 +6315,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -6329,9 +6332,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -6346,9 +6349,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -6363,9 +6366,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -6381,9 +6384,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -6398,9 +6401,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -6415,9 +6418,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -6432,9 +6435,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -6449,9 +6452,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -6466,9 +6469,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -6483,9 +6486,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -6500,9 +6503,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -6517,9 +6520,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -6534,9 +6537,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -6551,9 +6554,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -6568,9 +6571,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -6585,9 +6588,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -6602,9 +6605,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
@@ -6619,9 +6622,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B333" t="s">
         <v>7</v>
@@ -6636,9 +6639,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B334" t="s">
         <v>7</v>
@@ -6653,9 +6656,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B335" t="s">
         <v>7</v>
@@ -6670,9 +6673,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B336" t="s">
         <v>7</v>
@@ -6687,9 +6690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
@@ -6704,9 +6707,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B338" t="s">
         <v>7</v>
@@ -6721,9 +6724,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B339" t="s">
         <v>7</v>
@@ -6738,9 +6741,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -6755,9 +6758,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B341" t="s">
         <v>7</v>
@@ -6772,9 +6775,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B342" t="s">
         <v>7</v>
@@ -6789,9 +6792,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B343" t="s">
         <v>7</v>
@@ -6806,9 +6809,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B344" t="s">
         <v>7</v>
@@ -6823,9 +6826,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B345" t="s">
         <v>7</v>
@@ -6840,9 +6843,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B346" t="s">
         <v>7</v>
@@ -6857,9 +6860,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -6874,9 +6877,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -6891,9 +6894,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -6908,9 +6911,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -6925,9 +6928,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -6942,9 +6945,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -6959,9 +6962,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -6976,9 +6979,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -6993,9 +6996,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7010,9 +7013,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7024,9 +7027,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7041,9 +7044,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7058,9 +7061,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7075,9 +7078,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7092,9 +7095,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7109,9 +7112,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B362" t="s">
         <v>7</v>
@@ -7126,9 +7129,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B363" t="s">
         <v>7</v>
@@ -7143,9 +7146,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B364" t="s">
         <v>7</v>
@@ -7160,9 +7163,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B365" t="s">
         <v>7</v>
@@ -7177,9 +7180,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B366" t="s">
         <v>7</v>
@@ -7194,9 +7197,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B367" t="s">
         <v>7</v>
@@ -7211,9 +7214,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B368" t="s">
         <v>7</v>
@@ -7228,9 +7231,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B369" t="s">
         <v>7</v>
@@ -7245,9 +7248,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B370" t="s">
         <v>7</v>
@@ -7262,9 +7265,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B371" t="s">
         <v>7</v>
@@ -7279,9 +7282,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B372" t="s">
         <v>7</v>
@@ -7296,9 +7299,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B373" t="s">
         <v>7</v>
@@ -7313,9 +7316,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B374" t="s">
         <v>7</v>
@@ -7330,9 +7333,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B375" t="s">
         <v>7</v>
@@ -7347,9 +7350,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B376" t="s">
         <v>7</v>
@@ -7364,9 +7367,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -7381,9 +7384,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -7398,9 +7401,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -7415,9 +7418,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -7432,9 +7435,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -7449,9 +7452,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -7466,9 +7469,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -7483,9 +7486,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -7500,9 +7503,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -7517,9 +7520,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -7534,9 +7537,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -7551,9 +7554,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -7568,9 +7571,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -7585,9 +7588,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -7602,9 +7605,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -7619,9 +7622,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B392" t="s">
         <v>7</v>
@@ -7636,9 +7639,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -7653,9 +7656,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B394" t="s">
         <v>7</v>
@@ -7670,9 +7673,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B395" t="s">
         <v>7</v>
@@ -7687,9 +7690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B396" t="s">
         <v>7</v>
@@ -7704,9 +7707,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B397" t="s">
         <v>7</v>
@@ -7721,9 +7724,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
@@ -7738,9 +7741,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B399" t="s">
         <v>7</v>
@@ -7755,9 +7758,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B400" t="s">
         <v>7</v>
@@ -7772,9 +7775,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -7789,9 +7792,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -7806,9 +7809,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -7823,9 +7826,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B404" t="s">
         <v>7</v>
@@ -7840,9 +7843,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B405" t="s">
         <v>7</v>
@@ -7857,9 +7860,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B406" t="s">
         <v>7</v>
@@ -7874,9 +7877,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -7888,9 +7891,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -7905,9 +7908,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -7922,9 +7925,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -7939,9 +7942,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -7956,9 +7959,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -7973,9 +7976,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -7990,9 +7993,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -8007,9 +8010,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -8024,9 +8027,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -8041,9 +8044,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -8058,9 +8061,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" ht="15.6" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" ht="15.65" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -8076,9 +8079,9 @@
       </c>
       <c r="J418" s="5"/>
     </row>
-    <row r="419" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -8093,9 +8096,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -8110,9 +8113,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -8127,9 +8130,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B422" t="s">
         <v>7</v>
@@ -8144,9 +8147,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -8161,9 +8164,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -8178,9 +8181,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
@@ -8195,9 +8198,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B426" t="s">
         <v>7</v>
@@ -8212,9 +8215,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B427" t="s">
         <v>7</v>
@@ -8229,9 +8232,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B428" t="s">
         <v>7</v>
@@ -8246,9 +8249,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B429" t="s">
         <v>7</v>
@@ -8263,9 +8266,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B430" t="s">
         <v>7</v>
@@ -8280,9 +8283,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -8297,9 +8300,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B432" t="s">
         <v>7</v>
@@ -8314,9 +8317,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B433" t="s">
         <v>7</v>
@@ -8331,9 +8334,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B434" t="s">
         <v>7</v>
@@ -8348,9 +8351,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B435" t="s">
         <v>7</v>
@@ -8365,9 +8368,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B436" t="s">
         <v>7</v>
@@ -8382,9 +8385,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -8399,9 +8402,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -8416,9 +8419,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -8433,9 +8436,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -8450,9 +8453,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -8467,9 +8470,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -8484,9 +8487,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -8501,9 +8504,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
@@ -8518,9 +8521,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -8535,9 +8538,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -8552,9 +8555,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -8569,9 +8572,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -8586,9 +8589,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
@@ -8603,9 +8606,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -8620,9 +8623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -8637,9 +8640,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B452" t="s">
         <v>7</v>
@@ -8654,9 +8657,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B453" t="s">
         <v>7</v>
@@ -8671,9 +8674,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B454" t="s">
         <v>7</v>
@@ -8688,9 +8691,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B455" t="s">
         <v>7</v>
@@ -8705,9 +8708,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B456" t="s">
         <v>7</v>
@@ -8722,9 +8725,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B457" t="s">
         <v>7</v>
@@ -8739,9 +8742,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B458" t="s">
         <v>7</v>
@@ -8753,9 +8756,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B459" t="s">
         <v>7</v>
@@ -8770,9 +8773,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B460" t="s">
         <v>7</v>
@@ -8787,12 +8790,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B461" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>8</v>
@@ -8804,12 +8807,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B462" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C462" t="s">
         <v>11</v>
@@ -8821,12 +8824,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B463" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C463" t="s">
         <v>12</v>
@@ -8838,12 +8841,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B464" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C464" t="s">
         <v>13</v>
@@ -8855,12 +8858,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B465" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C465" t="s">
         <v>16</v>
@@ -8872,12 +8875,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B466" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C466" t="s">
         <v>17</v>
@@ -8889,12 +8892,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B467" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C467" t="s">
         <v>18</v>
@@ -8906,12 +8909,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B468" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C468" t="s">
         <v>19</v>
@@ -8923,12 +8926,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B469" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C469" t="s">
         <v>20</v>
@@ -8940,12 +8943,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B470" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C470" t="s">
         <v>21</v>
@@ -8957,12 +8960,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B471" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C471" t="s">
         <v>22</v>
@@ -8974,12 +8977,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B472" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C472" t="s">
         <v>23</v>
@@ -8991,12 +8994,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B473" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C473" t="s">
         <v>24</v>
@@ -9008,12 +9011,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B474" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C474" t="s">
         <v>25</v>
@@ -9025,12 +9028,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B475" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C475" t="s">
         <v>26</v>
@@ -9042,12 +9045,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B476" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C476" t="s">
         <v>27</v>
@@ -9059,12 +9062,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B477" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -9076,12 +9079,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B478" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C478" t="s">
         <v>29</v>
@@ -9093,12 +9096,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B479" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C479" t="s">
         <v>30</v>
@@ -9110,12 +9113,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B480" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C480" t="s">
         <v>31</v>
@@ -9127,12 +9130,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B481" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C481" t="s">
         <v>32</v>
@@ -9144,12 +9147,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B482" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C482" t="s">
         <v>33</v>
@@ -9161,12 +9164,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B483" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C483" t="s">
         <v>34</v>
@@ -9178,12 +9181,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B484" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C484" t="s">
         <v>35</v>
@@ -9195,12 +9198,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B485" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C485" t="s">
         <v>36</v>
@@ -9212,12 +9215,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B486" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C486" t="s">
         <v>37</v>
@@ -9229,12 +9232,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B487" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C487" t="s">
         <v>38</v>
@@ -9246,12 +9249,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B488" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C488" t="s">
         <v>39</v>
@@ -9263,12 +9266,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B489" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C489" t="s">
         <v>40</v>
@@ -9280,12 +9283,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B490" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C490" t="s">
         <v>41</v>
@@ -9297,12 +9300,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B491" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C491" t="s">
         <v>42</v>
@@ -9314,12 +9317,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B492" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C492" t="s">
         <v>43</v>
@@ -9331,12 +9334,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B493" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C493" t="s">
         <v>44</v>
@@ -9348,12 +9351,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B494" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C494" t="s">
         <v>45</v>
@@ -9365,12 +9368,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B495" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C495" t="s">
         <v>46</v>
@@ -9382,12 +9385,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B496" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C496" t="s">
         <v>47</v>
@@ -9399,12 +9402,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B497" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C497" t="s">
         <v>48</v>
@@ -9416,12 +9419,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B498" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C498" t="s">
         <v>49</v>
@@ -9433,12 +9436,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B499" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C499" t="s">
         <v>50</v>
@@ -9450,12 +9453,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B500" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C500" t="s">
         <v>51</v>
@@ -9467,12 +9470,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B501" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C501" t="s">
         <v>52</v>
@@ -9484,12 +9487,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B502" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C502" t="s">
         <v>53</v>
@@ -9501,12 +9504,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B503" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C503" t="s">
         <v>54</v>
@@ -9518,12 +9521,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B504" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C504" t="s">
         <v>55</v>
@@ -9535,12 +9538,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B505" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C505" t="s">
         <v>56</v>
@@ -9552,12 +9555,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B506" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C506" t="s">
         <v>57</v>
@@ -9569,12 +9572,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B507" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C507" t="s">
         <v>58</v>
@@ -9586,12 +9589,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B508" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C508" t="s">
         <v>59</v>
@@ -9603,12 +9606,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B509" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C509" t="s">
         <v>60</v>
@@ -9620,12 +9623,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B510" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C510" t="s">
         <v>61</v>
@@ -9637,12 +9640,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="511" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B511" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C511" t="s">
         <v>62</v>
@@ -9654,9 +9657,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" ht="15.6" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" ht="15.65" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B512" t="s">
         <v>7</v>
@@ -9671,9 +9674,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B513" t="s">
         <v>7</v>
@@ -9688,9 +9691,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B514" t="s">
         <v>7</v>
@@ -9705,9 +9708,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B515" t="s">
         <v>7</v>
@@ -9722,9 +9725,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B516" t="s">
         <v>7</v>
@@ -9739,9 +9742,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B517" t="s">
         <v>7</v>
@@ -9756,9 +9759,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B518" t="s">
         <v>7</v>
@@ -9773,9 +9776,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B519" t="s">
         <v>7</v>
@@ -9790,9 +9793,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="520" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B520" t="s">
         <v>7</v>
@@ -9807,9 +9810,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="521" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B521" t="s">
         <v>7</v>
@@ -9824,9 +9827,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B522" t="s">
         <v>7</v>
@@ -9841,9 +9844,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B523" t="s">
         <v>7</v>
@@ -9858,9 +9861,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B524" t="s">
         <v>7</v>
@@ -9875,9 +9878,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B525" t="s">
         <v>7</v>
@@ -9892,9 +9895,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B526" t="s">
         <v>7</v>
@@ -9909,9 +9912,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B527" t="s">
         <v>7</v>
@@ -9926,9 +9929,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B528" t="s">
         <v>7</v>
@@ -9943,9 +9946,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B529" t="s">
         <v>7</v>
@@ -9960,9 +9963,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="530" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
@@ -9977,9 +9980,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B531" t="s">
         <v>7</v>
@@ -9994,9 +9997,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B532" t="s">
         <v>7</v>
@@ -10011,9 +10014,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B533" t="s">
         <v>7</v>
@@ -10028,9 +10031,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B534" t="s">
         <v>7</v>
@@ -10045,9 +10048,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="535" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B535" t="s">
         <v>7</v>
@@ -10062,9 +10065,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B536" t="s">
         <v>7</v>
@@ -10079,9 +10082,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -10096,9 +10099,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
@@ -10113,9 +10116,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
@@ -10130,9 +10133,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B540" t="s">
         <v>7</v>
@@ -10147,9 +10150,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B541" t="s">
         <v>7</v>
@@ -10164,9 +10167,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B542" t="s">
         <v>7</v>
@@ -10181,9 +10184,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="543" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B543" t="s">
         <v>7</v>
@@ -10198,9 +10201,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="544" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B544" t="s">
         <v>7</v>
@@ -10215,9 +10218,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="545" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B545" t="s">
         <v>7</v>
@@ -10232,9 +10235,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="546" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B546" t="s">
         <v>7</v>
@@ -10249,9 +10252,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B547" t="s">
         <v>7</v>
@@ -10266,9 +10269,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B548" t="s">
         <v>7</v>
@@ -10283,9 +10286,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B549" t="s">
         <v>7</v>
@@ -10300,9 +10303,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B550" t="s">
         <v>7</v>
@@ -10317,9 +10320,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B551" t="s">
         <v>7</v>
@@ -10334,9 +10337,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B552" t="s">
         <v>7</v>
@@ -10351,9 +10354,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B553" t="s">
         <v>7</v>
@@ -10368,9 +10371,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B554" t="s">
         <v>7</v>
@@ -10385,9 +10388,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B555" t="s">
         <v>7</v>
@@ -10402,9 +10405,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B556" t="s">
         <v>7</v>
@@ -10419,9 +10422,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B557" t="s">
         <v>7</v>
@@ -10436,9 +10439,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B558" t="s">
         <v>7</v>
@@ -10453,9 +10456,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B559" t="s">
         <v>7</v>
@@ -10470,9 +10473,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="560" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B560" t="s">
         <v>7</v>
@@ -10487,9 +10490,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="561" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B561" t="s">
         <v>7</v>
@@ -10504,9 +10507,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" ht="15.65" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B562" t="s">
         <v>7</v>

--- a/Data/ReportView_SK_REG_COMPLETE_updated.xlsx
+++ b/Data/ReportView_SK_REG_COMPLETE_updated.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD06E7F-6C94-458B-98CB-28134C4FF153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174A176-F5BA-4B58-9BAC-E19CC7799C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="74">
   <si>
     <t>EMPID</t>
   </si>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5939,12 +5939,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>63</v>
+      <c r="B257" t="s">
+        <v>6</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>7</v>
@@ -5955,13 +5955,16 @@
       <c r="E257" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F257" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>67</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>63</v>
+      <c r="B258" t="s">
+        <v>6</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
@@ -5972,13 +5975,16 @@
       <c r="E258" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>67</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>63</v>
+      <c r="B259" t="s">
+        <v>6</v>
       </c>
       <c r="C259" t="s">
         <v>12</v>
@@ -5989,13 +5995,16 @@
       <c r="E259" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>67</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>63</v>
+      <c r="B260" t="s">
+        <v>6</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -6006,13 +6015,16 @@
       <c r="E260" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>67</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>63</v>
+      <c r="B261" t="s">
+        <v>6</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
@@ -6023,13 +6035,16 @@
       <c r="E261" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>67</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>63</v>
+      <c r="B262" t="s">
+        <v>6</v>
       </c>
       <c r="C262" t="s">
         <v>16</v>
@@ -6040,13 +6055,16 @@
       <c r="E262" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>67</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>63</v>
+      <c r="B263" t="s">
+        <v>6</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
@@ -6057,13 +6075,16 @@
       <c r="E263" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>67</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>63</v>
+      <c r="B264" t="s">
+        <v>6</v>
       </c>
       <c r="C264" t="s">
         <v>18</v>
@@ -6074,13 +6095,16 @@
       <c r="E264" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>67</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>63</v>
+      <c r="B265" t="s">
+        <v>6</v>
       </c>
       <c r="C265" t="s">
         <v>19</v>
@@ -6091,13 +6115,16 @@
       <c r="E265" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>67</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>63</v>
+      <c r="B266" t="s">
+        <v>6</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
@@ -6108,13 +6135,16 @@
       <c r="E266" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>67</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>63</v>
+      <c r="B267" t="s">
+        <v>6</v>
       </c>
       <c r="C267" t="s">
         <v>22</v>
@@ -6125,13 +6155,16 @@
       <c r="E267" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>67</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>63</v>
+      <c r="B268" t="s">
+        <v>6</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
@@ -6142,13 +6175,16 @@
       <c r="E268" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>67</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>63</v>
+      <c r="B269" t="s">
+        <v>6</v>
       </c>
       <c r="C269" t="s">
         <v>24</v>
@@ -6159,13 +6195,16 @@
       <c r="E269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>67</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>63</v>
+      <c r="B270" t="s">
+        <v>6</v>
       </c>
       <c r="C270" t="s">
         <v>25</v>
@@ -6176,13 +6215,16 @@
       <c r="E270" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>67</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>63</v>
+      <c r="B271" t="s">
+        <v>6</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -6193,13 +6235,16 @@
       <c r="E271" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>67</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>63</v>
+      <c r="B272" t="s">
+        <v>6</v>
       </c>
       <c r="C272" t="s">
         <v>27</v>
@@ -6210,13 +6255,16 @@
       <c r="E272" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>67</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>63</v>
+      <c r="B273" t="s">
+        <v>6</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -6227,13 +6275,16 @@
       <c r="E273" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>67</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>63</v>
+      <c r="B274" t="s">
+        <v>6</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -6244,13 +6295,16 @@
       <c r="E274" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>63</v>
+      <c r="B275" t="s">
+        <v>6</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
@@ -6261,13 +6315,16 @@
       <c r="E275" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>67</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>63</v>
+      <c r="B276" t="s">
+        <v>6</v>
       </c>
       <c r="C276" t="s">
         <v>31</v>
@@ -6278,13 +6335,16 @@
       <c r="E276" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>67</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>63</v>
+      <c r="B277" t="s">
+        <v>6</v>
       </c>
       <c r="C277" t="s">
         <v>32</v>
@@ -6295,13 +6355,16 @@
       <c r="E277" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>67</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>63</v>
+      <c r="B278" t="s">
+        <v>6</v>
       </c>
       <c r="C278" t="s">
         <v>33</v>
@@ -6312,13 +6375,16 @@
       <c r="E278" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>67</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>63</v>
+      <c r="B279" t="s">
+        <v>6</v>
       </c>
       <c r="C279" t="s">
         <v>34</v>
@@ -6329,13 +6395,16 @@
       <c r="E279" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>67</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>63</v>
+      <c r="B280" t="s">
+        <v>6</v>
       </c>
       <c r="C280" t="s">
         <v>35</v>
@@ -6346,13 +6415,16 @@
       <c r="E280" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>67</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>63</v>
+      <c r="B281" t="s">
+        <v>6</v>
       </c>
       <c r="C281" t="s">
         <v>36</v>
@@ -6363,13 +6435,16 @@
       <c r="E281" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>67</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>63</v>
+      <c r="B282" t="s">
+        <v>6</v>
       </c>
       <c r="C282" t="s">
         <v>37</v>
@@ -6380,13 +6455,16 @@
       <c r="E282" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>67</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>63</v>
+      <c r="B283" t="s">
+        <v>6</v>
       </c>
       <c r="C283" t="s">
         <v>38</v>
@@ -6397,13 +6475,16 @@
       <c r="E283" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>67</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>63</v>
+      <c r="B284" t="s">
+        <v>6</v>
       </c>
       <c r="C284" t="s">
         <v>39</v>
@@ -6414,13 +6495,16 @@
       <c r="E284" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>67</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>63</v>
+      <c r="B285" t="s">
+        <v>6</v>
       </c>
       <c r="C285" t="s">
         <v>40</v>
@@ -6431,13 +6515,16 @@
       <c r="E285" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>67</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>63</v>
+      <c r="B286" t="s">
+        <v>6</v>
       </c>
       <c r="C286" t="s">
         <v>41</v>
@@ -6448,13 +6535,16 @@
       <c r="E286" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>67</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>63</v>
+      <c r="B287" t="s">
+        <v>6</v>
       </c>
       <c r="C287" t="s">
         <v>42</v>
@@ -6465,13 +6555,16 @@
       <c r="E287" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>67</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>63</v>
+      <c r="B288" t="s">
+        <v>6</v>
       </c>
       <c r="C288" t="s">
         <v>43</v>
@@ -6482,13 +6575,16 @@
       <c r="E288" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>67</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>63</v>
+      <c r="B289" t="s">
+        <v>6</v>
       </c>
       <c r="C289" t="s">
         <v>44</v>
@@ -6499,13 +6595,16 @@
       <c r="E289" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>67</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>63</v>
+      <c r="B290" t="s">
+        <v>6</v>
       </c>
       <c r="C290" t="s">
         <v>45</v>
@@ -6516,13 +6615,16 @@
       <c r="E290" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>67</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>63</v>
+      <c r="B291" t="s">
+        <v>6</v>
       </c>
       <c r="C291" t="s">
         <v>46</v>
@@ -6533,13 +6635,16 @@
       <c r="E291" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>67</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>63</v>
+      <c r="B292" t="s">
+        <v>6</v>
       </c>
       <c r="C292" t="s">
         <v>47</v>
@@ -6550,13 +6655,16 @@
       <c r="E292" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>67</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>63</v>
+      <c r="B293" t="s">
+        <v>6</v>
       </c>
       <c r="C293" t="s">
         <v>48</v>
@@ -6567,13 +6675,16 @@
       <c r="E293" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>67</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>63</v>
+      <c r="B294" t="s">
+        <v>6</v>
       </c>
       <c r="C294" t="s">
         <v>49</v>
@@ -6584,13 +6695,16 @@
       <c r="E294" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>67</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>63</v>
+      <c r="B295" t="s">
+        <v>6</v>
       </c>
       <c r="C295" t="s">
         <v>50</v>
@@ -6601,13 +6715,16 @@
       <c r="E295" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>67</v>
       </c>
-      <c r="B296" s="4" t="s">
-        <v>63</v>
+      <c r="B296" t="s">
+        <v>6</v>
       </c>
       <c r="C296" t="s">
         <v>51</v>
@@ -6618,13 +6735,16 @@
       <c r="E296" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>67</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>63</v>
+      <c r="B297" t="s">
+        <v>6</v>
       </c>
       <c r="C297" t="s">
         <v>52</v>
@@ -6635,13 +6755,16 @@
       <c r="E297" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>67</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>63</v>
+      <c r="B298" t="s">
+        <v>6</v>
       </c>
       <c r="C298" t="s">
         <v>53</v>
@@ -6652,13 +6775,16 @@
       <c r="E298" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>67</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>63</v>
+      <c r="B299" t="s">
+        <v>6</v>
       </c>
       <c r="C299" t="s">
         <v>54</v>
@@ -6669,13 +6795,16 @@
       <c r="E299" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>67</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>63</v>
+      <c r="B300" t="s">
+        <v>6</v>
       </c>
       <c r="C300" t="s">
         <v>55</v>
@@ -6686,13 +6815,16 @@
       <c r="E300" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>67</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>63</v>
+      <c r="B301" t="s">
+        <v>6</v>
       </c>
       <c r="C301" t="s">
         <v>56</v>
@@ -6703,13 +6835,16 @@
       <c r="E301" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>67</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>63</v>
+      <c r="B302" t="s">
+        <v>6</v>
       </c>
       <c r="C302" t="s">
         <v>57</v>
@@ -6720,13 +6855,16 @@
       <c r="E302" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>67</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>63</v>
+      <c r="B303" t="s">
+        <v>6</v>
       </c>
       <c r="C303" t="s">
         <v>58</v>
@@ -6737,13 +6875,16 @@
       <c r="E303" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>67</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>63</v>
+      <c r="B304" t="s">
+        <v>6</v>
       </c>
       <c r="C304" t="s">
         <v>59</v>
@@ -6753,14 +6894,17 @@
       </c>
       <c r="E304" t="s">
         <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>67</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>63</v>
+      <c r="B305" t="s">
+        <v>6</v>
       </c>
       <c r="C305" t="s">
         <v>60</v>
@@ -6770,14 +6914,17 @@
       </c>
       <c r="E305" t="s">
         <v>9</v>
+      </c>
+      <c r="F305" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>67</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>63</v>
+      <c r="B306" t="s">
+        <v>6</v>
       </c>
       <c r="C306" t="s">
         <v>61</v>
@@ -6787,14 +6934,17 @@
       </c>
       <c r="E306" t="s">
         <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>67</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>63</v>
+      <c r="B307" t="s">
+        <v>6</v>
       </c>
       <c r="C307" t="s">
         <v>62</v>
@@ -6804,6 +6954,9 @@
       </c>
       <c r="E307" t="s">
         <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -7836,6 +7989,9 @@
       <c r="D359" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
       <c r="F359" s="3" t="s">
         <v>10</v>
       </c>
@@ -7853,6 +8009,9 @@
       <c r="D360" t="s">
         <v>8</v>
       </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
       <c r="F360" t="s">
         <v>10</v>
       </c>
@@ -7870,6 +8029,9 @@
       <c r="D361" t="s">
         <v>8</v>
       </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
       <c r="F361" t="s">
         <v>10</v>
       </c>
@@ -7887,6 +8049,9 @@
       <c r="D362" t="s">
         <v>14</v>
       </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
       <c r="F362" t="s">
         <v>10</v>
       </c>
@@ -7904,6 +8069,9 @@
       <c r="D363" t="s">
         <v>8</v>
       </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
       <c r="F363" t="s">
         <v>10</v>
       </c>
@@ -7921,6 +8089,9 @@
       <c r="D364" t="s">
         <v>8</v>
       </c>
+      <c r="E364" t="s">
+        <v>9</v>
+      </c>
       <c r="F364" t="s">
         <v>10</v>
       </c>
@@ -7938,6 +8109,9 @@
       <c r="D365" t="s">
         <v>8</v>
       </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
       <c r="F365" t="s">
         <v>10</v>
       </c>
@@ -7955,6 +8129,9 @@
       <c r="D366" t="s">
         <v>14</v>
       </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
       <c r="F366" t="s">
         <v>10</v>
       </c>
@@ -7972,6 +8149,9 @@
       <c r="D367" t="s">
         <v>14</v>
       </c>
+      <c r="E367" t="s">
+        <v>9</v>
+      </c>
       <c r="F367" t="s">
         <v>10</v>
       </c>
@@ -7989,6 +8169,9 @@
       <c r="D368" t="s">
         <v>14</v>
       </c>
+      <c r="E368" t="s">
+        <v>9</v>
+      </c>
       <c r="F368" t="s">
         <v>21</v>
       </c>
@@ -8006,6 +8189,9 @@
       <c r="D369" t="s">
         <v>14</v>
       </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
       <c r="F369" t="s">
         <v>21</v>
       </c>
@@ -8023,6 +8209,9 @@
       <c r="D370" t="s">
         <v>14</v>
       </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
       <c r="F370" t="s">
         <v>10</v>
       </c>
@@ -8040,6 +8229,9 @@
       <c r="D371" t="s">
         <v>14</v>
       </c>
+      <c r="E371" t="s">
+        <v>9</v>
+      </c>
       <c r="F371" t="s">
         <v>10</v>
       </c>
@@ -8057,6 +8249,9 @@
       <c r="D372" t="s">
         <v>8</v>
       </c>
+      <c r="E372" t="s">
+        <v>9</v>
+      </c>
       <c r="F372" t="s">
         <v>10</v>
       </c>
@@ -8074,6 +8269,9 @@
       <c r="D373" t="s">
         <v>8</v>
       </c>
+      <c r="E373" t="s">
+        <v>9</v>
+      </c>
       <c r="F373" t="s">
         <v>10</v>
       </c>
@@ -8091,6 +8289,9 @@
       <c r="D374" t="s">
         <v>8</v>
       </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
       <c r="F374" t="s">
         <v>10</v>
       </c>
@@ -8108,6 +8309,9 @@
       <c r="D375" t="s">
         <v>8</v>
       </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
       <c r="F375" t="s">
         <v>10</v>
       </c>
@@ -8125,6 +8329,9 @@
       <c r="D376" t="s">
         <v>8</v>
       </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
       <c r="F376" t="s">
         <v>10</v>
       </c>
@@ -8142,6 +8349,9 @@
       <c r="D377" t="s">
         <v>8</v>
       </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
       <c r="F377" t="s">
         <v>10</v>
       </c>
@@ -8159,6 +8369,9 @@
       <c r="D378" t="s">
         <v>8</v>
       </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
       <c r="F378" t="s">
         <v>10</v>
       </c>
@@ -8176,6 +8389,9 @@
       <c r="D379" t="s">
         <v>8</v>
       </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
       <c r="F379" t="s">
         <v>10</v>
       </c>
@@ -8193,6 +8409,9 @@
       <c r="D380" t="s">
         <v>8</v>
       </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
       <c r="F380" t="s">
         <v>10</v>
       </c>
@@ -8210,6 +8429,9 @@
       <c r="D381" t="s">
         <v>8</v>
       </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
       <c r="F381" t="s">
         <v>10</v>
       </c>
@@ -8227,6 +8449,9 @@
       <c r="D382" t="s">
         <v>8</v>
       </c>
+      <c r="E382" t="s">
+        <v>9</v>
+      </c>
       <c r="F382" t="s">
         <v>10</v>
       </c>
@@ -8244,6 +8469,9 @@
       <c r="D383" t="s">
         <v>8</v>
       </c>
+      <c r="E383" t="s">
+        <v>9</v>
+      </c>
       <c r="F383" t="s">
         <v>10</v>
       </c>
@@ -8261,6 +8489,9 @@
       <c r="D384" t="s">
         <v>8</v>
       </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
       <c r="F384" t="s">
         <v>10</v>
       </c>
@@ -8278,6 +8509,9 @@
       <c r="D385" t="s">
         <v>8</v>
       </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
       <c r="F385" t="s">
         <v>10</v>
       </c>
@@ -8295,6 +8529,9 @@
       <c r="D386" t="s">
         <v>8</v>
       </c>
+      <c r="E386" t="s">
+        <v>9</v>
+      </c>
       <c r="F386" t="s">
         <v>10</v>
       </c>
@@ -8312,6 +8549,9 @@
       <c r="D387" t="s">
         <v>8</v>
       </c>
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
       <c r="F387" t="s">
         <v>10</v>
       </c>
@@ -8329,6 +8569,9 @@
       <c r="D388" t="s">
         <v>8</v>
       </c>
+      <c r="E388" t="s">
+        <v>9</v>
+      </c>
       <c r="F388" t="s">
         <v>10</v>
       </c>
@@ -8346,6 +8589,9 @@
       <c r="D389" t="s">
         <v>8</v>
       </c>
+      <c r="E389" t="s">
+        <v>9</v>
+      </c>
       <c r="F389" t="s">
         <v>10</v>
       </c>
@@ -8363,6 +8609,9 @@
       <c r="D390" t="s">
         <v>8</v>
       </c>
+      <c r="E390" t="s">
+        <v>9</v>
+      </c>
       <c r="F390" t="s">
         <v>10</v>
       </c>
@@ -8380,6 +8629,9 @@
       <c r="D391" t="s">
         <v>8</v>
       </c>
+      <c r="E391" t="s">
+        <v>9</v>
+      </c>
       <c r="F391" t="s">
         <v>10</v>
       </c>
@@ -8397,6 +8649,9 @@
       <c r="D392" t="s">
         <v>8</v>
       </c>
+      <c r="E392" t="s">
+        <v>9</v>
+      </c>
       <c r="F392" t="s">
         <v>10</v>
       </c>
@@ -8414,6 +8669,9 @@
       <c r="D393" t="s">
         <v>8</v>
       </c>
+      <c r="E393" t="s">
+        <v>9</v>
+      </c>
       <c r="F393" t="s">
         <v>10</v>
       </c>
@@ -8431,6 +8689,9 @@
       <c r="D394" t="s">
         <v>8</v>
       </c>
+      <c r="E394" t="s">
+        <v>9</v>
+      </c>
       <c r="F394" t="s">
         <v>10</v>
       </c>
@@ -8448,6 +8709,9 @@
       <c r="D395" t="s">
         <v>8</v>
       </c>
+      <c r="E395" t="s">
+        <v>9</v>
+      </c>
       <c r="F395" t="s">
         <v>10</v>
       </c>
@@ -8465,6 +8729,9 @@
       <c r="D396" t="s">
         <v>8</v>
       </c>
+      <c r="E396" t="s">
+        <v>9</v>
+      </c>
       <c r="F396" t="s">
         <v>10</v>
       </c>
@@ -8482,6 +8749,9 @@
       <c r="D397" t="s">
         <v>8</v>
       </c>
+      <c r="E397" t="s">
+        <v>9</v>
+      </c>
       <c r="F397" t="s">
         <v>10</v>
       </c>
@@ -8499,6 +8769,9 @@
       <c r="D398" t="s">
         <v>8</v>
       </c>
+      <c r="E398" t="s">
+        <v>9</v>
+      </c>
       <c r="F398" t="s">
         <v>10</v>
       </c>
@@ -8516,6 +8789,9 @@
       <c r="D399" t="s">
         <v>8</v>
       </c>
+      <c r="E399" t="s">
+        <v>9</v>
+      </c>
       <c r="F399" t="s">
         <v>10</v>
       </c>
@@ -8533,6 +8809,9 @@
       <c r="D400" t="s">
         <v>8</v>
       </c>
+      <c r="E400" t="s">
+        <v>9</v>
+      </c>
       <c r="F400" t="s">
         <v>10</v>
       </c>
@@ -8550,6 +8829,9 @@
       <c r="D401" t="s">
         <v>8</v>
       </c>
+      <c r="E401" t="s">
+        <v>9</v>
+      </c>
       <c r="F401" t="s">
         <v>10</v>
       </c>
@@ -8567,6 +8849,9 @@
       <c r="D402" t="s">
         <v>8</v>
       </c>
+      <c r="E402" t="s">
+        <v>9</v>
+      </c>
       <c r="F402" t="s">
         <v>10</v>
       </c>
@@ -8584,6 +8869,9 @@
       <c r="D403" t="s">
         <v>8</v>
       </c>
+      <c r="E403" t="s">
+        <v>9</v>
+      </c>
       <c r="F403" t="s">
         <v>10</v>
       </c>
@@ -8601,6 +8889,9 @@
       <c r="D404" t="s">
         <v>8</v>
       </c>
+      <c r="E404" t="s">
+        <v>9</v>
+      </c>
       <c r="F404" t="s">
         <v>10</v>
       </c>
@@ -8618,6 +8909,9 @@
       <c r="D405" t="s">
         <v>8</v>
       </c>
+      <c r="E405" t="s">
+        <v>9</v>
+      </c>
       <c r="F405" t="s">
         <v>10</v>
       </c>
@@ -8635,6 +8929,9 @@
       <c r="D406" t="s">
         <v>8</v>
       </c>
+      <c r="E406" t="s">
+        <v>9</v>
+      </c>
       <c r="F406" t="s">
         <v>10</v>
       </c>
@@ -8649,6 +8946,9 @@
       <c r="C407" t="s">
         <v>60</v>
       </c>
+      <c r="E407" t="s">
+        <v>9</v>
+      </c>
       <c r="F407" t="s">
         <v>21</v>
       </c>
@@ -8666,6 +8966,9 @@
       <c r="D408" t="s">
         <v>8</v>
       </c>
+      <c r="E408" t="s">
+        <v>9</v>
+      </c>
       <c r="F408" t="s">
         <v>10</v>
       </c>
@@ -8683,6 +8986,9 @@
       <c r="D409" t="s">
         <v>8</v>
       </c>
+      <c r="E409" t="s">
+        <v>9</v>
+      </c>
       <c r="F409" t="s">
         <v>10</v>
       </c>
@@ -8700,6 +9006,9 @@
       <c r="D410" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E410" t="s">
+        <v>9</v>
+      </c>
       <c r="F410" s="3" t="s">
         <v>10</v>
       </c>
@@ -8717,6 +9026,9 @@
       <c r="D411" t="s">
         <v>8</v>
       </c>
+      <c r="E411" t="s">
+        <v>9</v>
+      </c>
       <c r="F411" t="s">
         <v>10</v>
       </c>
@@ -8734,6 +9046,9 @@
       <c r="D412" t="s">
         <v>8</v>
       </c>
+      <c r="E412" t="s">
+        <v>9</v>
+      </c>
       <c r="F412" t="s">
         <v>10</v>
       </c>
@@ -8751,6 +9066,9 @@
       <c r="D413" t="s">
         <v>14</v>
       </c>
+      <c r="E413" t="s">
+        <v>9</v>
+      </c>
       <c r="F413" t="s">
         <v>10</v>
       </c>
@@ -8768,6 +9086,9 @@
       <c r="D414" t="s">
         <v>14</v>
       </c>
+      <c r="E414" t="s">
+        <v>9</v>
+      </c>
       <c r="F414" t="s">
         <v>10</v>
       </c>
@@ -8785,6 +9106,9 @@
       <c r="D415" t="s">
         <v>14</v>
       </c>
+      <c r="E415" t="s">
+        <v>9</v>
+      </c>
       <c r="F415" t="s">
         <v>10</v>
       </c>
@@ -8802,6 +9126,9 @@
       <c r="D416" t="s">
         <v>14</v>
       </c>
+      <c r="E416" t="s">
+        <v>9</v>
+      </c>
       <c r="F416" t="s">
         <v>10</v>
       </c>
@@ -8819,6 +9146,9 @@
       <c r="D417" t="s">
         <v>8</v>
       </c>
+      <c r="E417" t="s">
+        <v>9</v>
+      </c>
       <c r="F417" t="s">
         <v>10</v>
       </c>
@@ -8836,6 +9166,9 @@
       <c r="D418" t="s">
         <v>8</v>
       </c>
+      <c r="E418" t="s">
+        <v>9</v>
+      </c>
       <c r="F418" t="s">
         <v>10</v>
       </c>
@@ -8854,6 +9187,9 @@
       <c r="D419" t="s">
         <v>8</v>
       </c>
+      <c r="E419" t="s">
+        <v>9</v>
+      </c>
       <c r="F419" t="s">
         <v>10</v>
       </c>
@@ -8871,6 +9207,9 @@
       <c r="D420" t="s">
         <v>8</v>
       </c>
+      <c r="E420" t="s">
+        <v>9</v>
+      </c>
       <c r="F420" t="s">
         <v>10</v>
       </c>
@@ -8888,6 +9227,9 @@
       <c r="D421" t="s">
         <v>8</v>
       </c>
+      <c r="E421" t="s">
+        <v>9</v>
+      </c>
       <c r="F421" t="s">
         <v>10</v>
       </c>
@@ -8905,6 +9247,9 @@
       <c r="D422" t="s">
         <v>8</v>
       </c>
+      <c r="E422" t="s">
+        <v>9</v>
+      </c>
       <c r="F422" t="s">
         <v>10</v>
       </c>
@@ -8922,6 +9267,9 @@
       <c r="D423" t="s">
         <v>8</v>
       </c>
+      <c r="E423" t="s">
+        <v>9</v>
+      </c>
       <c r="F423" t="s">
         <v>10</v>
       </c>
@@ -8939,6 +9287,9 @@
       <c r="D424" t="s">
         <v>8</v>
       </c>
+      <c r="E424" t="s">
+        <v>9</v>
+      </c>
       <c r="F424" t="s">
         <v>10</v>
       </c>
@@ -8956,6 +9307,9 @@
       <c r="D425" t="s">
         <v>8</v>
       </c>
+      <c r="E425" t="s">
+        <v>9</v>
+      </c>
       <c r="F425" t="s">
         <v>10</v>
       </c>
@@ -8973,6 +9327,9 @@
       <c r="D426" t="s">
         <v>8</v>
       </c>
+      <c r="E426" t="s">
+        <v>9</v>
+      </c>
       <c r="F426" t="s">
         <v>10</v>
       </c>
@@ -8990,6 +9347,9 @@
       <c r="D427" t="s">
         <v>8</v>
       </c>
+      <c r="E427" t="s">
+        <v>9</v>
+      </c>
       <c r="F427" t="s">
         <v>10</v>
       </c>
@@ -9007,6 +9367,9 @@
       <c r="D428" t="s">
         <v>8</v>
       </c>
+      <c r="E428" t="s">
+        <v>9</v>
+      </c>
       <c r="F428" t="s">
         <v>10</v>
       </c>
@@ -9024,6 +9387,9 @@
       <c r="D429" t="s">
         <v>8</v>
       </c>
+      <c r="E429" t="s">
+        <v>9</v>
+      </c>
       <c r="F429" t="s">
         <v>10</v>
       </c>
@@ -9041,6 +9407,9 @@
       <c r="D430" t="s">
         <v>8</v>
       </c>
+      <c r="E430" t="s">
+        <v>9</v>
+      </c>
       <c r="F430" t="s">
         <v>10</v>
       </c>
@@ -9058,6 +9427,9 @@
       <c r="D431" t="s">
         <v>8</v>
       </c>
+      <c r="E431" t="s">
+        <v>9</v>
+      </c>
       <c r="F431" t="s">
         <v>10</v>
       </c>
@@ -9075,6 +9447,9 @@
       <c r="D432" t="s">
         <v>8</v>
       </c>
+      <c r="E432" t="s">
+        <v>9</v>
+      </c>
       <c r="F432" t="s">
         <v>10</v>
       </c>
@@ -9092,6 +9467,9 @@
       <c r="D433" t="s">
         <v>8</v>
       </c>
+      <c r="E433" t="s">
+        <v>9</v>
+      </c>
       <c r="F433" t="s">
         <v>10</v>
       </c>
@@ -9109,6 +9487,9 @@
       <c r="D434" t="s">
         <v>8</v>
       </c>
+      <c r="E434" t="s">
+        <v>9</v>
+      </c>
       <c r="F434" t="s">
         <v>10</v>
       </c>
@@ -9126,6 +9507,9 @@
       <c r="D435" t="s">
         <v>8</v>
       </c>
+      <c r="E435" t="s">
+        <v>9</v>
+      </c>
       <c r="F435" t="s">
         <v>10</v>
       </c>
@@ -9143,6 +9527,9 @@
       <c r="D436" t="s">
         <v>8</v>
       </c>
+      <c r="E436" t="s">
+        <v>9</v>
+      </c>
       <c r="F436" t="s">
         <v>10</v>
       </c>
@@ -9160,6 +9547,9 @@
       <c r="D437" t="s">
         <v>8</v>
       </c>
+      <c r="E437" t="s">
+        <v>9</v>
+      </c>
       <c r="F437" t="s">
         <v>10</v>
       </c>
@@ -9177,6 +9567,9 @@
       <c r="D438" t="s">
         <v>8</v>
       </c>
+      <c r="E438" t="s">
+        <v>9</v>
+      </c>
       <c r="F438" t="s">
         <v>10</v>
       </c>
@@ -9194,6 +9587,9 @@
       <c r="D439" t="s">
         <v>8</v>
       </c>
+      <c r="E439" t="s">
+        <v>9</v>
+      </c>
       <c r="F439" t="s">
         <v>10</v>
       </c>
@@ -9211,6 +9607,9 @@
       <c r="D440" t="s">
         <v>8</v>
       </c>
+      <c r="E440" t="s">
+        <v>9</v>
+      </c>
       <c r="F440" t="s">
         <v>10</v>
       </c>
@@ -9228,6 +9627,9 @@
       <c r="D441" t="s">
         <v>8</v>
       </c>
+      <c r="E441" t="s">
+        <v>9</v>
+      </c>
       <c r="F441" t="s">
         <v>10</v>
       </c>
@@ -9245,6 +9647,9 @@
       <c r="D442" t="s">
         <v>8</v>
       </c>
+      <c r="E442" t="s">
+        <v>9</v>
+      </c>
       <c r="F442" t="s">
         <v>10</v>
       </c>
@@ -9262,6 +9667,9 @@
       <c r="D443" t="s">
         <v>8</v>
       </c>
+      <c r="E443" t="s">
+        <v>9</v>
+      </c>
       <c r="F443" t="s">
         <v>10</v>
       </c>
@@ -9279,6 +9687,9 @@
       <c r="D444" t="s">
         <v>8</v>
       </c>
+      <c r="E444" t="s">
+        <v>9</v>
+      </c>
       <c r="F444" t="s">
         <v>10</v>
       </c>
@@ -9296,6 +9707,9 @@
       <c r="D445" t="s">
         <v>8</v>
       </c>
+      <c r="E445" t="s">
+        <v>9</v>
+      </c>
       <c r="F445" t="s">
         <v>10</v>
       </c>
@@ -9313,6 +9727,9 @@
       <c r="D446" t="s">
         <v>8</v>
       </c>
+      <c r="E446" t="s">
+        <v>9</v>
+      </c>
       <c r="F446" t="s">
         <v>10</v>
       </c>
@@ -9330,6 +9747,9 @@
       <c r="D447" t="s">
         <v>8</v>
       </c>
+      <c r="E447" t="s">
+        <v>9</v>
+      </c>
       <c r="F447" t="s">
         <v>10</v>
       </c>
@@ -9347,6 +9767,9 @@
       <c r="D448" t="s">
         <v>8</v>
       </c>
+      <c r="E448" t="s">
+        <v>9</v>
+      </c>
       <c r="F448" t="s">
         <v>10</v>
       </c>
@@ -9364,6 +9787,9 @@
       <c r="D449" t="s">
         <v>8</v>
       </c>
+      <c r="E449" t="s">
+        <v>9</v>
+      </c>
       <c r="F449" t="s">
         <v>10</v>
       </c>
@@ -9381,6 +9807,9 @@
       <c r="D450" t="s">
         <v>8</v>
       </c>
+      <c r="E450" t="s">
+        <v>9</v>
+      </c>
       <c r="F450" t="s">
         <v>10</v>
       </c>
@@ -9398,6 +9827,9 @@
       <c r="D451" t="s">
         <v>8</v>
       </c>
+      <c r="E451" t="s">
+        <v>9</v>
+      </c>
       <c r="F451" t="s">
         <v>10</v>
       </c>
@@ -9415,6 +9847,9 @@
       <c r="D452" t="s">
         <v>8</v>
       </c>
+      <c r="E452" t="s">
+        <v>9</v>
+      </c>
       <c r="F452" t="s">
         <v>10</v>
       </c>
@@ -9432,6 +9867,9 @@
       <c r="D453" t="s">
         <v>8</v>
       </c>
+      <c r="E453" t="s">
+        <v>9</v>
+      </c>
       <c r="F453" t="s">
         <v>10</v>
       </c>
@@ -9449,6 +9887,9 @@
       <c r="D454" t="s">
         <v>8</v>
       </c>
+      <c r="E454" t="s">
+        <v>9</v>
+      </c>
       <c r="F454" t="s">
         <v>10</v>
       </c>
@@ -9466,6 +9907,9 @@
       <c r="D455" t="s">
         <v>8</v>
       </c>
+      <c r="E455" t="s">
+        <v>9</v>
+      </c>
       <c r="F455" t="s">
         <v>10</v>
       </c>
@@ -9483,6 +9927,9 @@
       <c r="D456" t="s">
         <v>8</v>
       </c>
+      <c r="E456" t="s">
+        <v>9</v>
+      </c>
       <c r="F456" t="s">
         <v>10</v>
       </c>
@@ -9500,6 +9947,9 @@
       <c r="D457" t="s">
         <v>8</v>
       </c>
+      <c r="E457" t="s">
+        <v>9</v>
+      </c>
       <c r="F457" t="s">
         <v>10</v>
       </c>
@@ -9514,6 +9964,9 @@
       <c r="C458" t="s">
         <v>60</v>
       </c>
+      <c r="E458" t="s">
+        <v>9</v>
+      </c>
       <c r="F458" t="s">
         <v>21</v>
       </c>
@@ -9531,6 +9984,9 @@
       <c r="D459" t="s">
         <v>8</v>
       </c>
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
       <c r="F459" t="s">
         <v>10</v>
       </c>
@@ -9548,6 +10004,9 @@
       <c r="D460" t="s">
         <v>8</v>
       </c>
+      <c r="E460" t="s">
+        <v>9</v>
+      </c>
       <c r="F460" t="s">
         <v>10</v>
       </c>
@@ -9565,6 +10024,9 @@
       <c r="D461" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E461" t="s">
+        <v>9</v>
+      </c>
       <c r="F461" s="3" t="s">
         <v>10</v>
       </c>
@@ -9582,6 +10044,9 @@
       <c r="D462" t="s">
         <v>14</v>
       </c>
+      <c r="E462" t="s">
+        <v>9</v>
+      </c>
       <c r="F462" t="s">
         <v>10</v>
       </c>
@@ -9599,6 +10064,9 @@
       <c r="D463" t="s">
         <v>14</v>
       </c>
+      <c r="E463" t="s">
+        <v>9</v>
+      </c>
       <c r="F463" t="s">
         <v>21</v>
       </c>
@@ -9616,6 +10084,9 @@
       <c r="D464" t="s">
         <v>14</v>
       </c>
+      <c r="E464" t="s">
+        <v>9</v>
+      </c>
       <c r="F464" t="s">
         <v>10</v>
       </c>
@@ -9633,6 +10104,9 @@
       <c r="D465" t="s">
         <v>14</v>
       </c>
+      <c r="E465" t="s">
+        <v>9</v>
+      </c>
       <c r="F465" t="s">
         <v>10</v>
       </c>
@@ -9650,6 +10124,9 @@
       <c r="D466" t="s">
         <v>14</v>
       </c>
+      <c r="E466" t="s">
+        <v>9</v>
+      </c>
       <c r="F466" t="s">
         <v>10</v>
       </c>
@@ -9667,6 +10144,9 @@
       <c r="D467" t="s">
         <v>14</v>
       </c>
+      <c r="E467" t="s">
+        <v>9</v>
+      </c>
       <c r="F467" t="s">
         <v>10</v>
       </c>
@@ -9684,6 +10164,9 @@
       <c r="D468" t="s">
         <v>14</v>
       </c>
+      <c r="E468" t="s">
+        <v>9</v>
+      </c>
       <c r="F468" t="s">
         <v>10</v>
       </c>
@@ -9701,6 +10184,9 @@
       <c r="D469" t="s">
         <v>14</v>
       </c>
+      <c r="E469" t="s">
+        <v>9</v>
+      </c>
       <c r="F469" t="s">
         <v>10</v>
       </c>
@@ -9718,6 +10204,9 @@
       <c r="D470" t="s">
         <v>14</v>
       </c>
+      <c r="E470" t="s">
+        <v>9</v>
+      </c>
       <c r="F470" t="s">
         <v>21</v>
       </c>
@@ -9735,6 +10224,9 @@
       <c r="D471" t="s">
         <v>14</v>
       </c>
+      <c r="E471" t="s">
+        <v>9</v>
+      </c>
       <c r="F471" t="s">
         <v>21</v>
       </c>
@@ -9752,6 +10244,9 @@
       <c r="D472" t="s">
         <v>14</v>
       </c>
+      <c r="E472" t="s">
+        <v>9</v>
+      </c>
       <c r="F472" t="s">
         <v>10</v>
       </c>
@@ -9769,6 +10264,9 @@
       <c r="D473" t="s">
         <v>14</v>
       </c>
+      <c r="E473" t="s">
+        <v>9</v>
+      </c>
       <c r="F473" t="s">
         <v>10</v>
       </c>
@@ -9786,6 +10284,9 @@
       <c r="D474" t="s">
         <v>14</v>
       </c>
+      <c r="E474" t="s">
+        <v>9</v>
+      </c>
       <c r="F474" t="s">
         <v>21</v>
       </c>
@@ -9803,6 +10304,9 @@
       <c r="D475" t="s">
         <v>14</v>
       </c>
+      <c r="E475" t="s">
+        <v>9</v>
+      </c>
       <c r="F475" t="s">
         <v>21</v>
       </c>
@@ -9820,6 +10324,9 @@
       <c r="D476" t="s">
         <v>14</v>
       </c>
+      <c r="E476" t="s">
+        <v>9</v>
+      </c>
       <c r="F476" t="s">
         <v>10</v>
       </c>
@@ -9837,6 +10344,9 @@
       <c r="D477" t="s">
         <v>14</v>
       </c>
+      <c r="E477" t="s">
+        <v>9</v>
+      </c>
       <c r="F477" t="s">
         <v>10</v>
       </c>
@@ -9854,6 +10364,9 @@
       <c r="D478" t="s">
         <v>14</v>
       </c>
+      <c r="E478" t="s">
+        <v>9</v>
+      </c>
       <c r="F478" t="s">
         <v>10</v>
       </c>
@@ -9871,6 +10384,9 @@
       <c r="D479" t="s">
         <v>14</v>
       </c>
+      <c r="E479" t="s">
+        <v>9</v>
+      </c>
       <c r="F479" t="s">
         <v>10</v>
       </c>
@@ -9888,6 +10404,9 @@
       <c r="D480" t="s">
         <v>14</v>
       </c>
+      <c r="E480" t="s">
+        <v>9</v>
+      </c>
       <c r="F480" t="s">
         <v>21</v>
       </c>
@@ -9905,6 +10424,9 @@
       <c r="D481" t="s">
         <v>14</v>
       </c>
+      <c r="E481" t="s">
+        <v>9</v>
+      </c>
       <c r="F481" t="s">
         <v>10</v>
       </c>
@@ -9922,6 +10444,9 @@
       <c r="D482" t="s">
         <v>14</v>
       </c>
+      <c r="E482" t="s">
+        <v>9</v>
+      </c>
       <c r="F482" t="s">
         <v>10</v>
       </c>
@@ -9939,6 +10464,9 @@
       <c r="D483" t="s">
         <v>14</v>
       </c>
+      <c r="E483" t="s">
+        <v>9</v>
+      </c>
       <c r="F483" t="s">
         <v>10</v>
       </c>
@@ -9956,6 +10484,9 @@
       <c r="D484" t="s">
         <v>14</v>
       </c>
+      <c r="E484" t="s">
+        <v>9</v>
+      </c>
       <c r="F484" t="s">
         <v>21</v>
       </c>
@@ -9973,6 +10504,9 @@
       <c r="D485" t="s">
         <v>14</v>
       </c>
+      <c r="E485" t="s">
+        <v>9</v>
+      </c>
       <c r="F485" t="s">
         <v>10</v>
       </c>
@@ -9990,6 +10524,9 @@
       <c r="D486" t="s">
         <v>14</v>
       </c>
+      <c r="E486" t="s">
+        <v>9</v>
+      </c>
       <c r="F486" t="s">
         <v>10</v>
       </c>
@@ -10007,6 +10544,9 @@
       <c r="D487" t="s">
         <v>14</v>
       </c>
+      <c r="E487" t="s">
+        <v>9</v>
+      </c>
       <c r="F487" t="s">
         <v>10</v>
       </c>
@@ -10024,6 +10564,9 @@
       <c r="D488" t="s">
         <v>14</v>
       </c>
+      <c r="E488" t="s">
+        <v>9</v>
+      </c>
       <c r="F488" t="s">
         <v>10</v>
       </c>
@@ -10041,6 +10584,9 @@
       <c r="D489" t="s">
         <v>14</v>
       </c>
+      <c r="E489" t="s">
+        <v>9</v>
+      </c>
       <c r="F489" t="s">
         <v>10</v>
       </c>
@@ -10058,6 +10604,9 @@
       <c r="D490" t="s">
         <v>14</v>
       </c>
+      <c r="E490" t="s">
+        <v>9</v>
+      </c>
       <c r="F490" t="s">
         <v>10</v>
       </c>
@@ -10075,6 +10624,9 @@
       <c r="D491" t="s">
         <v>14</v>
       </c>
+      <c r="E491" t="s">
+        <v>9</v>
+      </c>
       <c r="F491" t="s">
         <v>10</v>
       </c>
@@ -10092,6 +10644,9 @@
       <c r="D492" t="s">
         <v>14</v>
       </c>
+      <c r="E492" t="s">
+        <v>9</v>
+      </c>
       <c r="F492" t="s">
         <v>10</v>
       </c>
@@ -10109,6 +10664,9 @@
       <c r="D493" t="s">
         <v>14</v>
       </c>
+      <c r="E493" t="s">
+        <v>9</v>
+      </c>
       <c r="F493" t="s">
         <v>10</v>
       </c>
@@ -10126,6 +10684,9 @@
       <c r="D494" t="s">
         <v>14</v>
       </c>
+      <c r="E494" t="s">
+        <v>9</v>
+      </c>
       <c r="F494" t="s">
         <v>10</v>
       </c>
@@ -10143,6 +10704,9 @@
       <c r="D495" t="s">
         <v>14</v>
       </c>
+      <c r="E495" t="s">
+        <v>9</v>
+      </c>
       <c r="F495" t="s">
         <v>21</v>
       </c>
@@ -10160,6 +10724,9 @@
       <c r="D496" t="s">
         <v>14</v>
       </c>
+      <c r="E496" t="s">
+        <v>9</v>
+      </c>
       <c r="F496" t="s">
         <v>10</v>
       </c>
@@ -10177,6 +10744,9 @@
       <c r="D497" t="s">
         <v>14</v>
       </c>
+      <c r="E497" t="s">
+        <v>9</v>
+      </c>
       <c r="F497" t="s">
         <v>10</v>
       </c>
@@ -10194,6 +10764,9 @@
       <c r="D498" t="s">
         <v>14</v>
       </c>
+      <c r="E498" t="s">
+        <v>9</v>
+      </c>
       <c r="F498" t="s">
         <v>10</v>
       </c>
@@ -10211,6 +10784,9 @@
       <c r="D499" t="s">
         <v>14</v>
       </c>
+      <c r="E499" t="s">
+        <v>9</v>
+      </c>
       <c r="F499" t="s">
         <v>10</v>
       </c>
@@ -10228,6 +10804,9 @@
       <c r="D500" t="s">
         <v>14</v>
       </c>
+      <c r="E500" t="s">
+        <v>9</v>
+      </c>
       <c r="F500" t="s">
         <v>21</v>
       </c>
@@ -10245,6 +10824,9 @@
       <c r="D501" t="s">
         <v>14</v>
       </c>
+      <c r="E501" t="s">
+        <v>9</v>
+      </c>
       <c r="F501" t="s">
         <v>10</v>
       </c>
@@ -10262,6 +10844,9 @@
       <c r="D502" t="s">
         <v>14</v>
       </c>
+      <c r="E502" t="s">
+        <v>9</v>
+      </c>
       <c r="F502" t="s">
         <v>10</v>
       </c>
@@ -10279,6 +10864,9 @@
       <c r="D503" t="s">
         <v>14</v>
       </c>
+      <c r="E503" t="s">
+        <v>9</v>
+      </c>
       <c r="F503" t="s">
         <v>10</v>
       </c>
@@ -10296,6 +10884,9 @@
       <c r="D504" t="s">
         <v>14</v>
       </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
       <c r="F504" t="s">
         <v>10</v>
       </c>
@@ -10313,6 +10904,9 @@
       <c r="D505" t="s">
         <v>14</v>
       </c>
+      <c r="E505" t="s">
+        <v>9</v>
+      </c>
       <c r="F505" t="s">
         <v>10</v>
       </c>
@@ -10330,6 +10924,9 @@
       <c r="D506" t="s">
         <v>14</v>
       </c>
+      <c r="E506" t="s">
+        <v>9</v>
+      </c>
       <c r="F506" t="s">
         <v>10</v>
       </c>
@@ -10347,6 +10944,9 @@
       <c r="D507" t="s">
         <v>14</v>
       </c>
+      <c r="E507" t="s">
+        <v>9</v>
+      </c>
       <c r="F507" t="s">
         <v>10</v>
       </c>
@@ -10364,6 +10964,9 @@
       <c r="D508" t="s">
         <v>14</v>
       </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
       <c r="F508" t="s">
         <v>10</v>
       </c>
@@ -10381,6 +10984,9 @@
       <c r="D509" t="s">
         <v>14</v>
       </c>
+      <c r="E509" t="s">
+        <v>9</v>
+      </c>
       <c r="F509" t="s">
         <v>10</v>
       </c>
@@ -10398,6 +11004,9 @@
       <c r="D510" t="s">
         <v>14</v>
       </c>
+      <c r="E510" t="s">
+        <v>9</v>
+      </c>
       <c r="F510" t="s">
         <v>10</v>
       </c>
@@ -10415,6 +11024,9 @@
       <c r="D511" t="s">
         <v>14</v>
       </c>
+      <c r="E511" t="s">
+        <v>9</v>
+      </c>
       <c r="F511" t="s">
         <v>10</v>
       </c>
@@ -10432,6 +11044,9 @@
       <c r="D512" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E512" t="s">
+        <v>9</v>
+      </c>
       <c r="F512" s="3" t="s">
         <v>10</v>
       </c>
@@ -10449,6 +11064,9 @@
       <c r="D513" t="s">
         <v>14</v>
       </c>
+      <c r="E513" t="s">
+        <v>9</v>
+      </c>
       <c r="F513" t="s">
         <v>10</v>
       </c>
@@ -10466,6 +11084,9 @@
       <c r="D514" t="s">
         <v>14</v>
       </c>
+      <c r="E514" t="s">
+        <v>9</v>
+      </c>
       <c r="F514" t="s">
         <v>21</v>
       </c>
@@ -10483,6 +11104,9 @@
       <c r="D515" t="s">
         <v>14</v>
       </c>
+      <c r="E515" t="s">
+        <v>9</v>
+      </c>
       <c r="F515" t="s">
         <v>10</v>
       </c>
@@ -10500,6 +11124,9 @@
       <c r="D516" t="s">
         <v>14</v>
       </c>
+      <c r="E516" t="s">
+        <v>9</v>
+      </c>
       <c r="F516" t="s">
         <v>10</v>
       </c>
@@ -10517,6 +11144,9 @@
       <c r="D517" t="s">
         <v>14</v>
       </c>
+      <c r="E517" t="s">
+        <v>9</v>
+      </c>
       <c r="F517" t="s">
         <v>10</v>
       </c>
@@ -10534,6 +11164,9 @@
       <c r="D518" t="s">
         <v>14</v>
       </c>
+      <c r="E518" t="s">
+        <v>9</v>
+      </c>
       <c r="F518" t="s">
         <v>10</v>
       </c>
@@ -10551,6 +11184,9 @@
       <c r="D519" t="s">
         <v>14</v>
       </c>
+      <c r="E519" t="s">
+        <v>9</v>
+      </c>
       <c r="F519" t="s">
         <v>10</v>
       </c>
@@ -10568,6 +11204,9 @@
       <c r="D520" t="s">
         <v>14</v>
       </c>
+      <c r="E520" t="s">
+        <v>9</v>
+      </c>
       <c r="F520" t="s">
         <v>10</v>
       </c>
@@ -10585,6 +11224,9 @@
       <c r="D521" t="s">
         <v>14</v>
       </c>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
       <c r="F521" t="s">
         <v>21</v>
       </c>
@@ -10602,6 +11244,9 @@
       <c r="D522" t="s">
         <v>14</v>
       </c>
+      <c r="E522" t="s">
+        <v>9</v>
+      </c>
       <c r="F522" t="s">
         <v>21</v>
       </c>
@@ -10619,6 +11264,9 @@
       <c r="D523" t="s">
         <v>14</v>
       </c>
+      <c r="E523" t="s">
+        <v>9</v>
+      </c>
       <c r="F523" t="s">
         <v>10</v>
       </c>
@@ -10636,6 +11284,9 @@
       <c r="D524" t="s">
         <v>14</v>
       </c>
+      <c r="E524" t="s">
+        <v>9</v>
+      </c>
       <c r="F524" t="s">
         <v>10</v>
       </c>
@@ -10653,6 +11304,9 @@
       <c r="D525" t="s">
         <v>14</v>
       </c>
+      <c r="E525" t="s">
+        <v>9</v>
+      </c>
       <c r="F525" t="s">
         <v>21</v>
       </c>
@@ -10670,6 +11324,9 @@
       <c r="D526" t="s">
         <v>14</v>
       </c>
+      <c r="E526" t="s">
+        <v>9</v>
+      </c>
       <c r="F526" t="s">
         <v>21</v>
       </c>
@@ -10687,6 +11344,9 @@
       <c r="D527" t="s">
         <v>14</v>
       </c>
+      <c r="E527" t="s">
+        <v>9</v>
+      </c>
       <c r="F527" t="s">
         <v>10</v>
       </c>
@@ -10704,6 +11364,9 @@
       <c r="D528" t="s">
         <v>14</v>
       </c>
+      <c r="E528" t="s">
+        <v>9</v>
+      </c>
       <c r="F528" t="s">
         <v>10</v>
       </c>
@@ -10721,6 +11384,9 @@
       <c r="D529" t="s">
         <v>14</v>
       </c>
+      <c r="E529" t="s">
+        <v>9</v>
+      </c>
       <c r="F529" t="s">
         <v>10</v>
       </c>
@@ -10738,6 +11404,9 @@
       <c r="D530" t="s">
         <v>14</v>
       </c>
+      <c r="E530" t="s">
+        <v>9</v>
+      </c>
       <c r="F530" t="s">
         <v>10</v>
       </c>
@@ -10755,6 +11424,9 @@
       <c r="D531" t="s">
         <v>14</v>
       </c>
+      <c r="E531" t="s">
+        <v>9</v>
+      </c>
       <c r="F531" t="s">
         <v>21</v>
       </c>
@@ -10772,6 +11444,9 @@
       <c r="D532" t="s">
         <v>14</v>
       </c>
+      <c r="E532" t="s">
+        <v>9</v>
+      </c>
       <c r="F532" t="s">
         <v>10</v>
       </c>
@@ -10789,6 +11464,9 @@
       <c r="D533" t="s">
         <v>14</v>
       </c>
+      <c r="E533" t="s">
+        <v>9</v>
+      </c>
       <c r="F533" t="s">
         <v>10</v>
       </c>
@@ -10806,6 +11484,9 @@
       <c r="D534" t="s">
         <v>14</v>
       </c>
+      <c r="E534" t="s">
+        <v>9</v>
+      </c>
       <c r="F534" t="s">
         <v>10</v>
       </c>
@@ -10823,6 +11504,9 @@
       <c r="D535" t="s">
         <v>14</v>
       </c>
+      <c r="E535" t="s">
+        <v>9</v>
+      </c>
       <c r="F535" t="s">
         <v>21</v>
       </c>
@@ -10840,6 +11524,9 @@
       <c r="D536" t="s">
         <v>14</v>
       </c>
+      <c r="E536" t="s">
+        <v>9</v>
+      </c>
       <c r="F536" t="s">
         <v>10</v>
       </c>
@@ -10857,6 +11544,9 @@
       <c r="D537" t="s">
         <v>14</v>
       </c>
+      <c r="E537" t="s">
+        <v>9</v>
+      </c>
       <c r="F537" t="s">
         <v>10</v>
       </c>
@@ -10874,6 +11564,9 @@
       <c r="D538" t="s">
         <v>14</v>
       </c>
+      <c r="E538" t="s">
+        <v>9</v>
+      </c>
       <c r="F538" t="s">
         <v>10</v>
       </c>
@@ -10891,6 +11584,9 @@
       <c r="D539" t="s">
         <v>14</v>
       </c>
+      <c r="E539" t="s">
+        <v>9</v>
+      </c>
       <c r="F539" t="s">
         <v>10</v>
       </c>
@@ -10908,6 +11604,9 @@
       <c r="D540" t="s">
         <v>14</v>
       </c>
+      <c r="E540" t="s">
+        <v>9</v>
+      </c>
       <c r="F540" t="s">
         <v>10</v>
       </c>
@@ -10925,6 +11624,9 @@
       <c r="D541" t="s">
         <v>14</v>
       </c>
+      <c r="E541" t="s">
+        <v>9</v>
+      </c>
       <c r="F541" t="s">
         <v>10</v>
       </c>
@@ -10942,6 +11644,9 @@
       <c r="D542" t="s">
         <v>14</v>
       </c>
+      <c r="E542" t="s">
+        <v>9</v>
+      </c>
       <c r="F542" t="s">
         <v>10</v>
       </c>
@@ -10959,6 +11664,9 @@
       <c r="D543" t="s">
         <v>14</v>
       </c>
+      <c r="E543" t="s">
+        <v>9</v>
+      </c>
       <c r="F543" t="s">
         <v>10</v>
       </c>
@@ -10976,6 +11684,9 @@
       <c r="D544" t="s">
         <v>14</v>
       </c>
+      <c r="E544" t="s">
+        <v>9</v>
+      </c>
       <c r="F544" t="s">
         <v>10</v>
       </c>
@@ -10993,6 +11704,9 @@
       <c r="D545" t="s">
         <v>14</v>
       </c>
+      <c r="E545" t="s">
+        <v>9</v>
+      </c>
       <c r="F545" t="s">
         <v>10</v>
       </c>
@@ -11010,6 +11724,9 @@
       <c r="D546" t="s">
         <v>14</v>
       </c>
+      <c r="E546" t="s">
+        <v>9</v>
+      </c>
       <c r="F546" t="s">
         <v>21</v>
       </c>
@@ -11027,6 +11744,9 @@
       <c r="D547" t="s">
         <v>14</v>
       </c>
+      <c r="E547" t="s">
+        <v>9</v>
+      </c>
       <c r="F547" t="s">
         <v>10</v>
       </c>
@@ -11044,6 +11764,9 @@
       <c r="D548" t="s">
         <v>14</v>
       </c>
+      <c r="E548" t="s">
+        <v>9</v>
+      </c>
       <c r="F548" t="s">
         <v>10</v>
       </c>
@@ -11061,6 +11784,9 @@
       <c r="D549" t="s">
         <v>14</v>
       </c>
+      <c r="E549" t="s">
+        <v>9</v>
+      </c>
       <c r="F549" t="s">
         <v>10</v>
       </c>
@@ -11078,6 +11804,9 @@
       <c r="D550" t="s">
         <v>14</v>
       </c>
+      <c r="E550" t="s">
+        <v>9</v>
+      </c>
       <c r="F550" t="s">
         <v>10</v>
       </c>
@@ -11095,6 +11824,9 @@
       <c r="D551" t="s">
         <v>14</v>
       </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
       <c r="F551" t="s">
         <v>21</v>
       </c>
@@ -11112,6 +11844,9 @@
       <c r="D552" t="s">
         <v>14</v>
       </c>
+      <c r="E552" t="s">
+        <v>9</v>
+      </c>
       <c r="F552" t="s">
         <v>10</v>
       </c>
@@ -11129,6 +11864,9 @@
       <c r="D553" t="s">
         <v>14</v>
       </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
       <c r="F553" t="s">
         <v>10</v>
       </c>
@@ -11146,6 +11884,9 @@
       <c r="D554" t="s">
         <v>14</v>
       </c>
+      <c r="E554" t="s">
+        <v>9</v>
+      </c>
       <c r="F554" t="s">
         <v>10</v>
       </c>
@@ -11163,6 +11904,9 @@
       <c r="D555" t="s">
         <v>14</v>
       </c>
+      <c r="E555" t="s">
+        <v>9</v>
+      </c>
       <c r="F555" t="s">
         <v>10</v>
       </c>
@@ -11180,6 +11924,9 @@
       <c r="D556" t="s">
         <v>14</v>
       </c>
+      <c r="E556" t="s">
+        <v>9</v>
+      </c>
       <c r="F556" t="s">
         <v>10</v>
       </c>
@@ -11197,6 +11944,9 @@
       <c r="D557" t="s">
         <v>14</v>
       </c>
+      <c r="E557" t="s">
+        <v>9</v>
+      </c>
       <c r="F557" t="s">
         <v>10</v>
       </c>
@@ -11214,6 +11964,9 @@
       <c r="D558" t="s">
         <v>14</v>
       </c>
+      <c r="E558" t="s">
+        <v>9</v>
+      </c>
       <c r="F558" t="s">
         <v>10</v>
       </c>
@@ -11231,6 +11984,9 @@
       <c r="D559" t="s">
         <v>14</v>
       </c>
+      <c r="E559" t="s">
+        <v>9</v>
+      </c>
       <c r="F559" t="s">
         <v>10</v>
       </c>
@@ -11248,6 +12004,9 @@
       <c r="D560" t="s">
         <v>14</v>
       </c>
+      <c r="E560" t="s">
+        <v>9</v>
+      </c>
       <c r="F560" t="s">
         <v>21</v>
       </c>
@@ -11265,6 +12024,9 @@
       <c r="D561" t="s">
         <v>14</v>
       </c>
+      <c r="E561" t="s">
+        <v>9</v>
+      </c>
       <c r="F561" t="s">
         <v>10</v>
       </c>
@@ -11281,6 +12043,9 @@
       </c>
       <c r="D562" t="s">
         <v>14</v>
+      </c>
+      <c r="E562" t="s">
+        <v>9</v>
       </c>
       <c r="F562" t="s">
         <v>10</v>
